--- a/LED_Strahler_FW/LED_Strahler/LED_Strahler_RF_Commands.xlsx
+++ b/LED_Strahler_FW/LED_Strahler/LED_Strahler_RF_Commands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>Ping for devices</t>
   </si>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +465,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,7 +804,7 @@
   <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:N13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,30 +813,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="10">
         <v>1</v>
       </c>
@@ -903,12 +906,12 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
@@ -929,12 +932,12 @@
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -956,18 +959,18 @@
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -986,22 +989,22 @@
       <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="22"/>
+      <c r="K8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
@@ -1018,18 +1021,18 @@
       <c r="D9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1054,18 +1057,18 @@
       <c r="F10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="22"/>
+      <c r="I10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
@@ -1088,22 +1091,22 @@
       <c r="F11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="22"/>
+      <c r="K11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="20" t="s">
+      <c r="L11" s="22"/>
+      <c r="M11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="21"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -1124,18 +1127,18 @@
       <c r="F12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20" t="s">
+      <c r="H12" s="22"/>
+      <c r="I12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20" t="s">
+      <c r="J12" s="22"/>
+      <c r="K12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="3"/>
       <c r="N12" s="1"/>
     </row>
@@ -1152,26 +1155,26 @@
       <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="20" t="s">
+      <c r="J13" s="22"/>
+      <c r="K13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="20" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="21"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -1186,26 +1189,26 @@
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20" t="s">
+      <c r="H14" s="22"/>
+      <c r="I14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="20" t="s">
+      <c r="J14" s="22"/>
+      <c r="K14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="20" t="s">
+      <c r="L14" s="22"/>
+      <c r="M14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="21"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -1220,26 +1223,26 @@
       <c r="D15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20" t="s">
+      <c r="J15" s="22"/>
+      <c r="K15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="20" t="s">
+      <c r="L15" s="22"/>
+      <c r="M15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
@@ -1283,10 +1286,12 @@
       <c r="C18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1318,13 +1323,15 @@
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1340,13 +1347,15 @@
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1356,7 +1365,9 @@
       <c r="N21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
@@ -1367,10 +1378,10 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C21:F21"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="G10:H10"/>
@@ -1383,9 +1394,7 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C20:F20"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K13:L13"/>
@@ -1399,6 +1408,7 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
